--- a/3店销售情况-1110.xlsx
+++ b/3店销售情况-1110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="846" firstSheet="2" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="846" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="销售11.02-11.08" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="销售10.10-11.08" sheetId="3" r:id="rId3"/>
     <sheet name="商品推广11.02-11.08" sheetId="4" r:id="rId4"/>
     <sheet name="商品推广10.25-11.08" sheetId="5" r:id="rId5"/>
-    <sheet name="商品广告10.10-11.08" sheetId="6" r:id="rId6"/>
+    <sheet name="商品推广10.10-11.08" sheetId="6" r:id="rId6"/>
     <sheet name="品牌推广11.02-11.08" sheetId="7" r:id="rId7"/>
     <sheet name="品牌推广10.25-11.08" sheetId="8" r:id="rId8"/>
     <sheet name="品牌推广10.10-11.08" sheetId="9" r:id="rId9"/>
@@ -13778,7 +13778,7 @@
   <sheetPr/>
   <dimension ref="A1:Y183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+    <sheetView topLeftCell="A161" workbookViewId="0">
       <selection activeCell="V186" sqref="V186"/>
     </sheetView>
   </sheetViews>
@@ -58047,8 +58047,8 @@
   <sheetPr/>
   <dimension ref="A1:W156"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
